--- a/data_used/C14_sum npp per group.xlsx
+++ b/data_used/C14_sum npp per group.xlsx
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>1.478266827587929</v>
+        <v>11.41162824226718</v>
       </c>
     </row>
     <row r="10">

--- a/data_used/C14_sum npp per group.xlsx
+++ b/data_used/C14_sum npp per group.xlsx
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>11.41162824226718</v>
+        <v>1.478266827587929</v>
       </c>
     </row>
     <row r="10">
